--- a/Excel/镇魂街/national_tech国战科技.xlsx
+++ b/Excel/镇魂街/national_tech国战科技.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="212">
   <si>
     <t>科技1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,20 +418,6 @@
   <si>
     <t>national_tech_effect.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2#3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4#5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6#7</t>
-  </si>
-  <si>
-    <t>10#11#12#13</t>
   </si>
   <si>
     <t>Pos.x</t>
@@ -821,6 +807,22 @@
   </si>
   <si>
     <t>科技主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6101002#6101003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6101004#6101005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6101006#6101007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6101010#6101011#6101012#6101013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,8 +1254,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1292,7 +1294,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>104</v>
@@ -1312,7 +1314,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
@@ -1330,7 +1332,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>106</v>
@@ -1350,7 +1352,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -1378,14 +1380,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
     <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
@@ -1411,10 +1412,10 @@
         <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>35</v>
@@ -1599,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="1">
         <v>5</v>
@@ -1630,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="I5" s="1">
         <v>6101001</v>
@@ -1667,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="I6" s="1">
         <v>6101001</v>
@@ -1704,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>8</v>
+        <v>6101008</v>
       </c>
       <c r="I7" s="1">
         <v>6101002</v>
@@ -1741,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="1">
-        <v>8</v>
+        <v>6101008</v>
       </c>
       <c r="I8" s="1">
         <v>6101002</v>
@@ -1778,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
+        <v>6101008</v>
       </c>
       <c r="I9" s="1">
         <v>6101003</v>
@@ -1815,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="1">
-        <v>9</v>
+        <v>6101009</v>
       </c>
       <c r="I10" s="1">
         <v>6101003</v>
@@ -1852,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="I11" s="1">
         <v>6101004</v>
@@ -1935,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>14</v>
+        <v>6101014</v>
       </c>
       <c r="I13" s="1">
         <v>6101008</v>
@@ -2040,7 +2041,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="1">
-        <v>15</v>
+        <v>6101015</v>
       </c>
       <c r="I16" s="1">
         <v>6101008</v>
@@ -2166,25 +2167,25 @@
         <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>98</v>
@@ -2243,7 +2244,7 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>87</v>
@@ -2252,16 +2253,16 @@
         <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -2311,25 +2312,25 @@
         <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>80</v>
@@ -8290,19 +8291,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8310,16 +8311,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8327,16 +8328,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8344,16 +8345,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8361,16 +8362,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8378,19 +8379,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8398,16 +8399,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8415,13 +8416,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8429,13 +8430,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8443,13 +8444,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8457,13 +8458,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8471,13 +8472,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -8485,13 +8486,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -8499,16 +8500,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -8516,16 +8517,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -8533,16 +8534,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -8550,16 +8551,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -8567,16 +8568,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -8584,16 +8585,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -8601,16 +8602,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -8618,16 +8619,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -8635,16 +8636,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -8652,13 +8653,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -8666,13 +8667,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -8680,16 +8681,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -8697,16 +8698,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/national_tech国战科技.xlsx
+++ b/Excel/镇魂街/national_tech国战科技.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="217">
   <si>
     <t>科技1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,6 +823,26 @@
   </si>
   <si>
     <t>6101010#6101011#6101012#6101013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满级激活效果类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivationEffect.Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivationEffect.Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,7 +1401,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1392,7 +1412,10 @@
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1447,8 +1470,12 @@
       <c r="Q1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="R1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -1507,15 +1534,19 @@
       <c r="Q2" t="s">
         <v>49</v>
       </c>
-      <c r="R2"/>
-      <c r="S2"/>
+      <c r="R2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -1567,8 +1598,12 @@
       <c r="Q3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="R3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -1605,6 +1640,12 @@
       <c r="Q4" s="1">
         <v>5</v>
       </c>
+      <c r="R4" s="1">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1">
+        <v>10000</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1790,6 +1831,12 @@
       <c r="Q9" s="1">
         <v>5</v>
       </c>
+      <c r="R9" s="1">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1">
+        <v>30000</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1980,6 +2027,12 @@
       </c>
       <c r="Q14" s="1">
         <v>5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>6</v>
+      </c>
+      <c r="S14" s="1">
+        <v>20000</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -2133,8 +2186,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AE369"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/镇魂街/national_tech国战科技.xlsx
+++ b/Excel/镇魂街/national_tech国战科技.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="236">
   <si>
     <t>科技1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -728,16 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-  </si>
-  <si>
     <t>Effect[1].Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,79 +740,185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Effect[2].Type</t>
+  </si>
+  <si>
+    <t>Effect[2].Value</t>
+  </si>
+  <si>
+    <t>Effect[3].Type</t>
+  </si>
+  <si>
+    <t>Effect[3].Value</t>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际产量=(占领资源点产量+科技产量)*(1+联盟加成%+科技加成%)+联盟占领城市加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际产量=(占领资源点产量+科技产量)*(1+联盟加成%+科技加成%)+联盟占领城市加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开启功能 0.不开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技等级效果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技等级效果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6101002#6101003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6101004#6101005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6101006#6101007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6101010#6101011#6101012#6101013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivationEffect.Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果数值1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>效果数值2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effect[2].Type</t>
-  </si>
-  <si>
-    <t>Effect[2].Value</t>
-  </si>
-  <si>
-    <t>Effect[3].Type</t>
-  </si>
-  <si>
-    <t>Effect[3].Value</t>
-  </si>
-  <si>
-    <t>效果类型2</t>
+    <t>效果类型3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>效果数值3</t>
-  </si>
-  <si>
-    <t>效果类型3</t>
-  </si>
-  <si>
-    <t>效果数值4</t>
-  </si>
-  <si>
-    <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际产量=(占领资源点产量+科技产量)*(1+联盟加成%+科技加成%)+联盟占领城市加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际产量=(占领资源点产量+科技产量)*(1+联盟加成%+科技加成%)+联盟占领城市加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.开启功能 0.不开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技等级效果表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技等级效果表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技主表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技主表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6101002#6101003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6101004#6101005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6101006#6101007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6101010#6101011#6101012#6101013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果数值类型1
+1.百分比
+2.数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[1].Numeric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果数值类型2
+1.百分比
+2.数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果数值类型3
+1.百分比
+2.数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[2].Numeric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[3].Numeric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[1].Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果1名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[2].Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果2名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果3名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[3].Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivationEffect.Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivationEffect.Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivationEffect.Numeric</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -830,19 +926,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>效果数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivationEffect.Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivationEffect.Value</t>
+    <t>满级激活效果名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果数值类型
+1.百分比
+2.数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +1365,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1314,7 +1404,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>104</v>
@@ -1334,7 +1424,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
@@ -1352,7 +1442,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>106</v>
@@ -1372,7 +1462,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -1400,8 +1490,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1413,9 +1503,11 @@
     <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1470,14 +1562,18 @@
       <c r="Q1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>215</v>
+      <c r="R1" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -1534,19 +1630,23 @@
       <c r="Q2" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>200</v>
+      <c r="R2" t="s">
+        <v>225</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T2"/>
-      <c r="U2"/>
+        <v>192</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -1598,14 +1698,18 @@
       <c r="Q3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>212</v>
+      <c r="R3" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -1635,15 +1739,22 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="1">
         <v>5</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="18" t="str">
+        <f>VLOOKUP(S4,效果查询!$A:$C,3,FALSE)</f>
+        <v>仓库资源容量提升</v>
+      </c>
+      <c r="S4" s="1">
         <v>6</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1">
         <v>10000</v>
       </c>
     </row>
@@ -1672,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I5" s="1">
         <v>6101001</v>
@@ -1709,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I6" s="1">
         <v>6101001</v>
@@ -1831,10 +1942,17 @@
       <c r="Q9" s="1">
         <v>5</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="18" t="str">
+        <f>VLOOKUP(S9,效果查询!$A:$C,3,FALSE)</f>
+        <v>仓库资源容量提升</v>
+      </c>
+      <c r="S9" s="1">
         <v>6</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
+        <v>2</v>
+      </c>
+      <c r="U9" s="1">
         <v>30000</v>
       </c>
     </row>
@@ -1900,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I11" s="1">
         <v>6101004</v>
@@ -2028,10 +2146,17 @@
       <c r="Q14" s="1">
         <v>5</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="18" t="str">
+        <f>VLOOKUP(S14,效果查询!$A:$C,3,FALSE)</f>
+        <v>仓库资源容量提升</v>
+      </c>
+      <c r="S14" s="1">
         <v>6</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
+        <v>2</v>
+      </c>
+      <c r="U14" s="1">
         <v>20000</v>
       </c>
     </row>
@@ -2184,10 +2309,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AE369"/>
+  <dimension ref="A1:AJ369"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:G34"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2198,15 +2323,20 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
@@ -2220,70 +2350,85 @@
         <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2297,61 +2442,76 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>200</v>
+      <c r="I2" t="s">
+        <v>225</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" t="s">
         <v>59</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>81</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>82</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>81</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>81</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>82</v>
       </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
         <v>81</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
         <v>82</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
         <v>81</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
@@ -2365,70 +2525,85 @@
         <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2449,52 +2624,69 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.01</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="18" t="str">
+        <f>VLOOKUP(J4,效果查询!$A:$C,3,FALSE)</f>
+        <v>赤铁产量提高</v>
+      </c>
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
         <v>0.01</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="18" t="str">
+        <f>VLOOKUP(N4,效果查询!$A:$C,3,FALSE)</f>
+        <v>精石产量提高</v>
+      </c>
+      <c r="N4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="1">
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
         <v>0.01</v>
       </c>
-      <c r="L4" s="1">
+      <c r="Q4" s="1">
         <v>10</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="1">
+      <c r="S4" s="1">
         <v>200</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="1">
-        <f>N4-20</f>
+      <c r="U4" s="1">
+        <f>S4-20</f>
         <v>180</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R4" s="1">
-        <f>N4-30</f>
+      <c r="W4" s="1">
+        <f>S4-30</f>
         <v>170</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="1">
-        <f>N4-40</f>
+      <c r="Y4" s="1">
+        <f>S4-40</f>
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2515,52 +2707,69 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.02</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="18" t="str">
+        <f>VLOOKUP(J5,效果查询!$A:$C,3,FALSE)</f>
+        <v>赤铁产量提高</v>
+      </c>
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
         <v>0.02</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5" s="18" t="str">
+        <f>VLOOKUP(N5,效果查询!$A:$C,3,FALSE)</f>
+        <v>精石产量提高</v>
+      </c>
+      <c r="N5" s="1">
         <v>3</v>
       </c>
-      <c r="K5" s="1">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
         <v>0.02</v>
       </c>
-      <c r="L5" s="1">
+      <c r="Q5" s="1">
         <v>30</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="1">
+      <c r="S5" s="1">
         <v>10000</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="1">
-        <f t="shared" ref="P5:P68" si="0">N5-20</f>
+      <c r="U5" s="1">
+        <f t="shared" ref="U5:U68" si="0">S5-20</f>
         <v>9980</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="1">
-        <f t="shared" ref="R5:R68" si="1">N5-30</f>
+      <c r="W5" s="1">
+        <f t="shared" ref="W5:W68" si="1">S5-30</f>
         <v>9970</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T5" s="1">
-        <f t="shared" ref="T5:T68" si="2">N5-40</f>
+      <c r="Y5" s="1">
+        <f t="shared" ref="Y5:Y68" si="2">S5-40</f>
         <v>9960</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2581,52 +2790,69 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.03</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="18" t="str">
+        <f>VLOOKUP(J6,效果查询!$A:$C,3,FALSE)</f>
+        <v>赤铁产量提高</v>
+      </c>
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
         <v>0.03</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6" s="18" t="str">
+        <f>VLOOKUP(N6,效果查询!$A:$C,3,FALSE)</f>
+        <v>精石产量提高</v>
+      </c>
+      <c r="N6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
         <v>0.03</v>
       </c>
-      <c r="L6" s="1">
+      <c r="Q6" s="1">
         <v>60</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N6" s="1">
+      <c r="S6" s="1">
         <v>30000</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="1">
+      <c r="U6" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="1">
+      <c r="W6" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Y6" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2647,52 +2873,69 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.04</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="18" t="str">
+        <f>VLOOKUP(J7,效果查询!$A:$C,3,FALSE)</f>
+        <v>赤铁产量提高</v>
+      </c>
+      <c r="J7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
         <v>0.04</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7" s="18" t="str">
+        <f>VLOOKUP(N7,效果查询!$A:$C,3,FALSE)</f>
+        <v>精石产量提高</v>
+      </c>
+      <c r="N7" s="1">
         <v>3</v>
       </c>
-      <c r="K7" s="1">
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
         <v>0.04</v>
       </c>
-      <c r="L7" s="1">
+      <c r="Q7" s="1">
         <v>120</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="1">
+      <c r="S7" s="1">
         <v>60000</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="1">
+      <c r="U7" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="1">
+      <c r="W7" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T7" s="1">
+      <c r="Y7" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2713,52 +2956,69 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.05</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="18" t="str">
+        <f>VLOOKUP(J8,效果查询!$A:$C,3,FALSE)</f>
+        <v>赤铁产量提高</v>
+      </c>
+      <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
         <v>0.05</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8" s="18" t="str">
+        <f>VLOOKUP(N8,效果查询!$A:$C,3,FALSE)</f>
+        <v>精石产量提高</v>
+      </c>
+      <c r="N8" s="1">
         <v>3</v>
       </c>
-      <c r="K8" s="1">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
         <v>0.05</v>
       </c>
-      <c r="L8" s="1">
+      <c r="Q8" s="1">
         <v>300</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="1">
+      <c r="S8" s="1">
         <v>150000</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="1">
+      <c r="U8" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R8" s="1">
+      <c r="W8" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="1">
+      <c r="Y8" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2781,43 +3041,46 @@
         <v>2</v>
       </c>
       <c r="G9" s="1">
-        <f>G4</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f>H4</f>
         <v>0.01</v>
       </c>
-      <c r="L9" s="1">
-        <f>L4</f>
+      <c r="Q9" s="1">
+        <f>Q4</f>
         <v>10</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="1">
-        <f>N4</f>
+      <c r="S9" s="1">
+        <f>S4</f>
         <v>200</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P9" s="1">
+      <c r="U9" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="1">
+      <c r="W9" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T9" s="1">
+      <c r="Y9" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2840,43 +3103,46 @@
         <v>2</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:G75" si="5">G5</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ref="H10:H75" si="5">H5</f>
         <v>0.02</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" ref="L10:L73" si="6">L5</f>
+      <c r="Q10" s="1">
+        <f t="shared" ref="Q10:Q73" si="6">Q5</f>
         <v>30</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" ref="N10:N73" si="7">N5</f>
+      <c r="S10" s="1">
+        <f t="shared" ref="S10:S73" si="7">S5</f>
         <v>10000</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="1">
+      <c r="U10" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="1">
+      <c r="W10" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="1">
+      <c r="Y10" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2899,43 +3165,46 @@
         <v>2</v>
       </c>
       <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="L11" s="1">
+      <c r="Q11" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="1">
+      <c r="S11" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P11" s="1">
+      <c r="U11" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="1">
+      <c r="W11" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T11" s="1">
+      <c r="Y11" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2958,43 +3227,46 @@
         <v>2</v>
       </c>
       <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="L12" s="1">
+      <c r="Q12" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N12" s="1">
+      <c r="S12" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="1">
+      <c r="U12" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="1">
+      <c r="W12" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T12" s="1">
+      <c r="Y12" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3017,43 +3289,46 @@
         <v>2</v>
       </c>
       <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="L13" s="1">
+      <c r="Q13" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="1">
+      <c r="S13" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R13" s="1">
+      <c r="W13" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T13" s="1">
+      <c r="Y13" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3076,43 +3351,46 @@
         <v>3</v>
       </c>
       <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="L14" s="1">
+      <c r="Q14" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="1">
+      <c r="S14" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="1">
+      <c r="U14" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R14" s="1">
+      <c r="W14" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T14" s="1">
+      <c r="Y14" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3135,43 +3413,46 @@
         <v>3</v>
       </c>
       <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="L15" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N15" s="1">
+      <c r="S15" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="1">
+      <c r="U15" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R15" s="1">
+      <c r="W15" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T15" s="1">
+      <c r="Y15" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3194,43 +3475,46 @@
         <v>3</v>
       </c>
       <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="L16" s="1">
+      <c r="Q16" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="1">
+      <c r="S16" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="1">
+      <c r="U16" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R16" s="1">
+      <c r="W16" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T16" s="1">
+      <c r="Y16" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3253,43 +3537,46 @@
         <v>3</v>
       </c>
       <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="L17" s="1">
+      <c r="Q17" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N17" s="1">
+      <c r="S17" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="1">
+      <c r="U17" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R17" s="1">
+      <c r="W17" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T17" s="1">
+      <c r="Y17" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3312,43 +3599,46 @@
         <v>3</v>
       </c>
       <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="L18" s="1">
+      <c r="Q18" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N18" s="1">
+      <c r="S18" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="1">
+      <c r="U18" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R18" s="1">
+      <c r="W18" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T18" s="1">
+      <c r="Y18" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3371,43 +3661,46 @@
         <v>4</v>
       </c>
       <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="L19" s="1">
+      <c r="Q19" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="1">
+      <c r="S19" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="1">
+      <c r="U19" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R19" s="1">
+      <c r="W19" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T19" s="1">
+      <c r="Y19" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3430,43 +3723,46 @@
         <v>4</v>
       </c>
       <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="L20" s="1">
+      <c r="Q20" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N20" s="1">
+      <c r="S20" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P20" s="1">
+      <c r="U20" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R20" s="1">
+      <c r="W20" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T20" s="1">
+      <c r="Y20" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3489,43 +3785,46 @@
         <v>4</v>
       </c>
       <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="L21" s="1">
+      <c r="Q21" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="1">
+      <c r="S21" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P21" s="1">
+      <c r="U21" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R21" s="1">
+      <c r="W21" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T21" s="1">
+      <c r="Y21" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3548,43 +3847,46 @@
         <v>4</v>
       </c>
       <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="L22" s="1">
+      <c r="Q22" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="1">
+      <c r="S22" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P22" s="1">
+      <c r="U22" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R22" s="1">
+      <c r="W22" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T22" s="1">
+      <c r="Y22" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3607,43 +3909,46 @@
         <v>4</v>
       </c>
       <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="L23" s="1">
+      <c r="Q23" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="1">
+      <c r="S23" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P23" s="1">
+      <c r="U23" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R23" s="1">
+      <c r="W23" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T23" s="1">
+      <c r="Y23" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3666,43 +3971,46 @@
         <v>5</v>
       </c>
       <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="L24" s="1">
+      <c r="Q24" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N24" s="1">
+      <c r="S24" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="1">
+      <c r="U24" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R24" s="1">
+      <c r="W24" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T24" s="1">
+      <c r="Y24" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3725,43 +4033,46 @@
         <v>5</v>
       </c>
       <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="L25" s="1">
+      <c r="Q25" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N25" s="1">
+      <c r="S25" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P25" s="1">
+      <c r="U25" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="V25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R25" s="1">
+      <c r="W25" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T25" s="1">
+      <c r="Y25" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3784,43 +4095,46 @@
         <v>5</v>
       </c>
       <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="L26" s="1">
+      <c r="Q26" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N26" s="1">
+      <c r="S26" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P26" s="1">
+      <c r="U26" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R26" s="1">
+      <c r="W26" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T26" s="1">
+      <c r="Y26" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3843,43 +4157,46 @@
         <v>5</v>
       </c>
       <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="L27" s="1">
+      <c r="Q27" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N27" s="1">
+      <c r="S27" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P27" s="1">
+      <c r="U27" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R27" s="1">
+      <c r="W27" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T27" s="1">
+      <c r="Y27" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3902,43 +4219,46 @@
         <v>5</v>
       </c>
       <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="L28" s="1">
+      <c r="Q28" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N28" s="1">
+      <c r="S28" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P28" s="1">
+      <c r="U28" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="V28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R28" s="1">
+      <c r="W28" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T28" s="1">
+      <c r="Y28" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3961,42 +4281,45 @@
         <v>6</v>
       </c>
       <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
         <v>10000</v>
       </c>
-      <c r="L29" s="1">
+      <c r="Q29" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N29" s="1">
+      <c r="S29" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P29" s="1">
+      <c r="U29" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R29" s="1">
+      <c r="W29" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T29" s="1">
+      <c r="Y29" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -4019,42 +4342,45 @@
         <v>6</v>
       </c>
       <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
         <v>20000</v>
       </c>
-      <c r="L30" s="1">
+      <c r="Q30" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="1">
+      <c r="S30" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P30" s="1">
+      <c r="U30" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="V30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R30" s="1">
+      <c r="W30" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T30" s="1">
+      <c r="Y30" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -4077,42 +4403,45 @@
         <v>6</v>
       </c>
       <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
         <v>30000</v>
       </c>
-      <c r="L31" s="1">
+      <c r="Q31" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N31" s="1">
+      <c r="S31" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P31" s="1">
+      <c r="U31" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="V31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R31" s="1">
+      <c r="W31" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T31" s="1">
+      <c r="Y31" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -4135,42 +4464,45 @@
         <v>6</v>
       </c>
       <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
         <v>40000</v>
       </c>
-      <c r="L32" s="1">
+      <c r="Q32" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N32" s="1">
+      <c r="S32" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P32" s="1">
+      <c r="U32" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="V32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R32" s="1">
+      <c r="W32" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T32" s="1">
+      <c r="Y32" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -4193,42 +4525,45 @@
         <v>6</v>
       </c>
       <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
         <v>50000</v>
       </c>
-      <c r="L33" s="1">
+      <c r="Q33" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N33" s="1">
+      <c r="S33" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P33" s="1">
+      <c r="U33" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="V33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R33" s="1">
+      <c r="W33" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="X33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T33" s="1">
+      <c r="Y33" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -4251,42 +4586,45 @@
         <v>13</v>
       </c>
       <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
         <v>0.01</v>
       </c>
-      <c r="L34" s="1">
+      <c r="Q34" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N34" s="1">
+      <c r="S34" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P34" s="1">
+      <c r="U34" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="V34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R34" s="1">
+      <c r="W34" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="X34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T34" s="1">
+      <c r="Y34" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -4309,42 +4647,45 @@
         <v>13</v>
       </c>
       <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
         <v>0.02</v>
       </c>
-      <c r="L35" s="1">
+      <c r="Q35" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N35" s="1">
+      <c r="S35" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P35" s="1">
+      <c r="U35" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="V35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R35" s="1">
+      <c r="W35" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T35" s="1">
+      <c r="Y35" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4367,42 +4708,45 @@
         <v>13</v>
       </c>
       <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
         <v>0.03</v>
       </c>
-      <c r="L36" s="1">
+      <c r="Q36" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N36" s="1">
+      <c r="S36" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P36" s="1">
+      <c r="U36" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="V36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R36" s="1">
+      <c r="W36" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T36" s="1">
+      <c r="Y36" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4425,42 +4769,45 @@
         <v>13</v>
       </c>
       <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
         <v>0.04</v>
       </c>
-      <c r="L37" s="1">
+      <c r="Q37" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N37" s="1">
+      <c r="S37" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P37" s="1">
+      <c r="U37" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="V37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R37" s="1">
+      <c r="W37" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T37" s="1">
+      <c r="Y37" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4483,42 +4830,45 @@
         <v>13</v>
       </c>
       <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
         <v>0.05</v>
       </c>
-      <c r="L38" s="1">
+      <c r="Q38" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N38" s="1">
+      <c r="S38" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P38" s="1">
+      <c r="U38" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="V38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R38" s="1">
+      <c r="W38" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="X38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T38" s="1">
+      <c r="Y38" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4541,42 +4891,45 @@
         <v>14</v>
       </c>
       <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
         <v>0.01</v>
       </c>
-      <c r="L39" s="1">
+      <c r="Q39" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N39" s="1">
+      <c r="S39" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="T39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P39" s="1">
+      <c r="U39" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="V39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R39" s="1">
+      <c r="W39" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="X39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T39" s="1">
+      <c r="Y39" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4599,42 +4952,45 @@
         <v>14</v>
       </c>
       <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
         <v>0.02</v>
       </c>
-      <c r="L40" s="1">
+      <c r="Q40" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N40" s="1">
+      <c r="S40" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P40" s="1">
+      <c r="U40" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="V40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R40" s="1">
+      <c r="W40" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="X40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T40" s="1">
+      <c r="Y40" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4657,42 +5013,45 @@
         <v>14</v>
       </c>
       <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
         <v>0.03</v>
       </c>
-      <c r="L41" s="1">
+      <c r="Q41" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="R41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N41" s="1">
+      <c r="S41" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P41" s="1">
+      <c r="U41" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="V41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R41" s="1">
+      <c r="W41" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="X41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T41" s="1">
+      <c r="Y41" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4715,42 +5074,45 @@
         <v>14</v>
       </c>
       <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
         <v>0.04</v>
       </c>
-      <c r="L42" s="1">
+      <c r="Q42" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N42" s="1">
+      <c r="S42" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P42" s="1">
+      <c r="U42" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="V42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R42" s="1">
+      <c r="W42" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="X42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T42" s="1">
+      <c r="Y42" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4773,42 +5135,45 @@
         <v>14</v>
       </c>
       <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
         <v>0.05</v>
       </c>
-      <c r="L43" s="1">
+      <c r="Q43" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N43" s="1">
+      <c r="S43" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P43" s="1">
+      <c r="U43" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="V43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R43" s="1">
+      <c r="W43" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="X43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T43" s="1">
+      <c r="Y43" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4831,42 +5196,45 @@
         <v>1</v>
       </c>
       <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
         <v>0.01</v>
       </c>
-      <c r="L44" s="1">
+      <c r="Q44" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="1">
+      <c r="S44" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="T44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P44" s="1">
+      <c r="U44" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="V44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R44" s="1">
+      <c r="W44" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="X44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T44" s="1">
+      <c r="Y44" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4889,42 +5257,45 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
         <v>0.02</v>
       </c>
-      <c r="L45" s="1">
+      <c r="Q45" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N45" s="1">
+      <c r="S45" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P45" s="1">
+      <c r="U45" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="V45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R45" s="1">
+      <c r="W45" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="X45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T45" s="1">
+      <c r="Y45" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4947,42 +5318,45 @@
         <v>1</v>
       </c>
       <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
         <v>0.03</v>
       </c>
-      <c r="L46" s="1">
+      <c r="Q46" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N46" s="1">
+      <c r="S46" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P46" s="1">
+      <c r="U46" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="V46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R46" s="1">
+      <c r="W46" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="X46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T46" s="1">
+      <c r="Y46" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5005,42 +5379,45 @@
         <v>1</v>
       </c>
       <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
         <v>0.04</v>
       </c>
-      <c r="L47" s="1">
+      <c r="Q47" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="R47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N47" s="1">
+      <c r="S47" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="T47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P47" s="1">
+      <c r="U47" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="V47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R47" s="1">
+      <c r="W47" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="X47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T47" s="1">
+      <c r="Y47" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5063,42 +5440,45 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
         <v>0.05</v>
       </c>
-      <c r="L48" s="1">
+      <c r="Q48" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N48" s="1">
+      <c r="S48" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="T48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P48" s="1">
+      <c r="U48" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="V48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R48" s="1">
+      <c r="W48" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="X48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T48" s="1">
+      <c r="Y48" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5121,43 +5501,46 @@
         <v>2</v>
       </c>
       <c r="G49" s="1">
-        <f>G44</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <f>H44</f>
         <v>0.01</v>
       </c>
-      <c r="L49" s="1">
+      <c r="Q49" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="R49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N49" s="1">
+      <c r="S49" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="T49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P49" s="1">
+      <c r="U49" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="V49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R49" s="1">
+      <c r="W49" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="X49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T49" s="1">
+      <c r="Y49" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5180,43 +5563,46 @@
         <v>2</v>
       </c>
       <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="L50" s="1">
+      <c r="Q50" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="R50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="1">
+      <c r="S50" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="T50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P50" s="1">
+      <c r="U50" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="V50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R50" s="1">
+      <c r="W50" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S50" s="1" t="s">
+      <c r="X50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T50" s="1">
+      <c r="Y50" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5239,43 +5625,46 @@
         <v>2</v>
       </c>
       <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="L51" s="1">
+      <c r="Q51" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="R51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="1">
+      <c r="S51" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="T51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P51" s="1">
+      <c r="U51" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="V51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R51" s="1">
+      <c r="W51" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S51" s="1" t="s">
+      <c r="X51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T51" s="1">
+      <c r="Y51" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5298,43 +5687,46 @@
         <v>2</v>
       </c>
       <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="L52" s="1">
+      <c r="Q52" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="R52" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N52" s="1">
+      <c r="S52" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="T52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P52" s="1">
+      <c r="U52" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="V52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R52" s="1">
+      <c r="W52" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="X52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T52" s="1">
+      <c r="Y52" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5357,43 +5749,46 @@
         <v>2</v>
       </c>
       <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
         <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="L53" s="1">
+      <c r="Q53" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="R53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N53" s="1">
+      <c r="S53" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="T53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P53" s="1">
+      <c r="U53" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="V53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R53" s="1">
+      <c r="W53" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S53" s="1" t="s">
+      <c r="X53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T53" s="1">
+      <c r="Y53" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5416,43 +5811,46 @@
         <v>3</v>
       </c>
       <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="L54" s="1">
+      <c r="Q54" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N54" s="1">
+      <c r="S54" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="T54" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P54" s="1">
+      <c r="U54" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="V54" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R54" s="1">
+      <c r="W54" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T54" s="1">
+      <c r="Y54" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5475,43 +5873,46 @@
         <v>3</v>
       </c>
       <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="L55" s="1">
+      <c r="Q55" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N55" s="1">
+      <c r="S55" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="T55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P55" s="1">
+      <c r="U55" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="V55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R55" s="1">
+      <c r="W55" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="X55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T55" s="1">
+      <c r="Y55" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5534,43 +5935,46 @@
         <v>3</v>
       </c>
       <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="L56" s="1">
+      <c r="Q56" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N56" s="1">
+      <c r="S56" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="T56" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P56" s="1">
+      <c r="U56" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="V56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R56" s="1">
+      <c r="W56" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T56" s="1">
+      <c r="Y56" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5593,43 +5997,46 @@
         <v>3</v>
       </c>
       <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="L57" s="1">
+      <c r="Q57" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N57" s="1">
+      <c r="S57" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="T57" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P57" s="1">
+      <c r="U57" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="V57" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R57" s="1">
+      <c r="W57" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="X57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T57" s="1">
+      <c r="Y57" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5652,43 +6059,46 @@
         <v>3</v>
       </c>
       <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
         <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="L58" s="1">
+      <c r="Q58" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="1">
+      <c r="S58" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="T58" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P58" s="1">
+      <c r="U58" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="V58" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R58" s="1">
+      <c r="W58" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S58" s="1" t="s">
+      <c r="X58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T58" s="1">
+      <c r="Y58" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5711,43 +6121,46 @@
         <v>4</v>
       </c>
       <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="L59" s="1">
+      <c r="Q59" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N59" s="1">
+      <c r="S59" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="T59" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P59" s="1">
+      <c r="U59" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="V59" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R59" s="1">
+      <c r="W59" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S59" s="1" t="s">
+      <c r="X59" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T59" s="1">
+      <c r="Y59" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5770,43 +6183,46 @@
         <v>4</v>
       </c>
       <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="L60" s="1">
+      <c r="Q60" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N60" s="1">
+      <c r="S60" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="T60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P60" s="1">
+      <c r="U60" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="V60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R60" s="1">
+      <c r="W60" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S60" s="1" t="s">
+      <c r="X60" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T60" s="1">
+      <c r="Y60" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5829,43 +6245,46 @@
         <v>4</v>
       </c>
       <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="L61" s="1">
+      <c r="Q61" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N61" s="1">
+      <c r="S61" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="T61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P61" s="1">
+      <c r="U61" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="V61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R61" s="1">
+      <c r="W61" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S61" s="1" t="s">
+      <c r="X61" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T61" s="1">
+      <c r="Y61" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5888,43 +6307,46 @@
         <v>4</v>
       </c>
       <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="L62" s="1">
+      <c r="Q62" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="R62" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N62" s="1">
+      <c r="S62" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="T62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P62" s="1">
+      <c r="U62" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="V62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R62" s="1">
+      <c r="W62" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="X62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T62" s="1">
+      <c r="Y62" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5947,43 +6369,46 @@
         <v>4</v>
       </c>
       <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
         <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="L63" s="1">
+      <c r="Q63" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="R63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N63" s="1">
+      <c r="S63" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="T63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P63" s="1">
+      <c r="U63" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="V63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R63" s="1">
+      <c r="W63" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S63" s="1" t="s">
+      <c r="X63" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T63" s="1">
+      <c r="Y63" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6006,43 +6431,46 @@
         <v>5</v>
       </c>
       <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="L64" s="1">
+      <c r="Q64" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N64" s="1">
+      <c r="S64" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="T64" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P64" s="1">
+      <c r="U64" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="V64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R64" s="1">
+      <c r="W64" s="1">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="X64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T64" s="1">
+      <c r="Y64" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6065,43 +6493,46 @@
         <v>5</v>
       </c>
       <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="L65" s="1">
+      <c r="Q65" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="R65" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N65" s="1">
+      <c r="S65" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="T65" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P65" s="1">
+      <c r="U65" s="1">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="V65" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R65" s="1">
+      <c r="W65" s="1">
         <f t="shared" si="1"/>
         <v>9970</v>
       </c>
-      <c r="S65" s="1" t="s">
+      <c r="X65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T65" s="1">
+      <c r="Y65" s="1">
         <f t="shared" si="2"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -6124,43 +6555,46 @@
         <v>5</v>
       </c>
       <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="L66" s="1">
+      <c r="Q66" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N66" s="1">
+      <c r="S66" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P66" s="1">
+      <c r="U66" s="1">
         <f t="shared" si="0"/>
         <v>29980</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="V66" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R66" s="1">
+      <c r="W66" s="1">
         <f t="shared" si="1"/>
         <v>29970</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T66" s="1">
+      <c r="Y66" s="1">
         <f t="shared" si="2"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -6183,43 +6617,46 @@
         <v>5</v>
       </c>
       <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="L67" s="1">
+      <c r="Q67" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="R67" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N67" s="1">
+      <c r="S67" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="T67" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P67" s="1">
+      <c r="U67" s="1">
         <f t="shared" si="0"/>
         <v>59980</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="V67" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R67" s="1">
+      <c r="W67" s="1">
         <f t="shared" si="1"/>
         <v>59970</v>
       </c>
-      <c r="S67" s="1" t="s">
+      <c r="X67" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T67" s="1">
+      <c r="Y67" s="1">
         <f t="shared" si="2"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -6242,43 +6679,46 @@
         <v>5</v>
       </c>
       <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
         <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="L68" s="1">
+      <c r="Q68" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="R68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N68" s="1">
+      <c r="S68" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="T68" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P68" s="1">
+      <c r="U68" s="1">
         <f t="shared" si="0"/>
         <v>149980</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="V68" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R68" s="1">
+      <c r="W68" s="1">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
-      <c r="S68" s="1" t="s">
+      <c r="X68" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T68" s="1">
+      <c r="Y68" s="1">
         <f t="shared" si="2"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -6301,42 +6741,45 @@
         <v>1</v>
       </c>
       <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
         <v>0.01</v>
       </c>
-      <c r="L69" s="1">
+      <c r="Q69" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="R69" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N69" s="1">
+      <c r="S69" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="T69" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P69" s="1">
-        <f t="shared" ref="P69:P78" si="8">N69-20</f>
+      <c r="U69" s="1">
+        <f t="shared" ref="U69:U78" si="8">S69-20</f>
         <v>180</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="V69" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R69" s="1">
-        <f t="shared" ref="R69:R78" si="9">N69-30</f>
+      <c r="W69" s="1">
+        <f t="shared" ref="W69:W78" si="9">S69-30</f>
         <v>170</v>
       </c>
-      <c r="S69" s="1" t="s">
+      <c r="X69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T69" s="1">
-        <f t="shared" ref="T69:T78" si="10">N69-40</f>
+      <c r="Y69" s="1">
+        <f t="shared" ref="Y69:Y78" si="10">S69-40</f>
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -6359,42 +6802,45 @@
         <v>1</v>
       </c>
       <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
         <v>0.02</v>
       </c>
-      <c r="L70" s="1">
+      <c r="Q70" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="R70" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N70" s="1">
+      <c r="S70" s="1">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="T70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P70" s="1">
+      <c r="U70" s="1">
         <f t="shared" si="8"/>
         <v>9980</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="V70" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R70" s="1">
+      <c r="W70" s="1">
         <f t="shared" si="9"/>
         <v>9970</v>
       </c>
-      <c r="S70" s="1" t="s">
+      <c r="X70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T70" s="1">
+      <c r="Y70" s="1">
         <f t="shared" si="10"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -6417,42 +6863,45 @@
         <v>1</v>
       </c>
       <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
         <v>0.03</v>
       </c>
-      <c r="L71" s="1">
+      <c r="Q71" s="1">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="R71" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N71" s="1">
+      <c r="S71" s="1">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="T71" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P71" s="1">
+      <c r="U71" s="1">
         <f t="shared" si="8"/>
         <v>29980</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="V71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R71" s="1">
+      <c r="W71" s="1">
         <f t="shared" si="9"/>
         <v>29970</v>
       </c>
-      <c r="S71" s="1" t="s">
+      <c r="X71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T71" s="1">
+      <c r="Y71" s="1">
         <f t="shared" si="10"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -6475,42 +6924,45 @@
         <v>1</v>
       </c>
       <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
         <v>0.04</v>
       </c>
-      <c r="L72" s="1">
+      <c r="Q72" s="1">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N72" s="1">
+      <c r="S72" s="1">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="T72" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P72" s="1">
+      <c r="U72" s="1">
         <f t="shared" si="8"/>
         <v>59980</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="V72" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R72" s="1">
+      <c r="W72" s="1">
         <f t="shared" si="9"/>
         <v>59970</v>
       </c>
-      <c r="S72" s="1" t="s">
+      <c r="X72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T72" s="1">
+      <c r="Y72" s="1">
         <f t="shared" si="10"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -6533,42 +6985,45 @@
         <v>1</v>
       </c>
       <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
         <v>0.05</v>
       </c>
-      <c r="L73" s="1">
+      <c r="Q73" s="1">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N73" s="1">
+      <c r="S73" s="1">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="T73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P73" s="1">
+      <c r="U73" s="1">
         <f t="shared" si="8"/>
         <v>149980</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="V73" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R73" s="1">
+      <c r="W73" s="1">
         <f t="shared" si="9"/>
         <v>149970</v>
       </c>
-      <c r="S73" s="1" t="s">
+      <c r="X73" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T73" s="1">
+      <c r="Y73" s="1">
         <f t="shared" si="10"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -6591,43 +7046,46 @@
         <v>2</v>
       </c>
       <c r="G74" s="1">
-        <f>G69</f>
+        <v>1</v>
+      </c>
+      <c r="H74" s="1">
+        <f>H69</f>
         <v>0.01</v>
       </c>
-      <c r="L74" s="1">
-        <f t="shared" ref="L74:L78" si="13">L69</f>
+      <c r="Q74" s="1">
+        <f t="shared" ref="Q74:Q78" si="13">Q69</f>
         <v>10</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="R74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N74" s="1">
-        <f t="shared" ref="N74:N78" si="14">N69</f>
+      <c r="S74" s="1">
+        <f t="shared" ref="S74:S78" si="14">S69</f>
         <v>200</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="T74" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P74" s="1">
+      <c r="U74" s="1">
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="Q74" s="1" t="s">
+      <c r="V74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R74" s="1">
+      <c r="W74" s="1">
         <f t="shared" si="9"/>
         <v>170</v>
       </c>
-      <c r="S74" s="1" t="s">
+      <c r="X74" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T74" s="1">
+      <c r="Y74" s="1">
         <f t="shared" si="10"/>
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -6650,43 +7108,46 @@
         <v>2</v>
       </c>
       <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="L75" s="1">
+      <c r="Q75" s="1">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="R75" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N75" s="1">
+      <c r="S75" s="1">
         <f t="shared" si="14"/>
         <v>10000</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="T75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P75" s="1">
+      <c r="U75" s="1">
         <f t="shared" si="8"/>
         <v>9980</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="V75" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R75" s="1">
+      <c r="W75" s="1">
         <f t="shared" si="9"/>
         <v>9970</v>
       </c>
-      <c r="S75" s="1" t="s">
+      <c r="X75" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T75" s="1">
+      <c r="Y75" s="1">
         <f t="shared" si="10"/>
         <v>9960</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -6709,43 +7170,46 @@
         <v>2</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" ref="G76:G78" si="15">G71</f>
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" ref="H76:H78" si="15">H71</f>
         <v>0.03</v>
       </c>
-      <c r="L76" s="1">
+      <c r="Q76" s="1">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="R76" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N76" s="1">
+      <c r="S76" s="1">
         <f t="shared" si="14"/>
         <v>30000</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="T76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P76" s="1">
+      <c r="U76" s="1">
         <f t="shared" si="8"/>
         <v>29980</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="V76" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R76" s="1">
+      <c r="W76" s="1">
         <f t="shared" si="9"/>
         <v>29970</v>
       </c>
-      <c r="S76" s="1" t="s">
+      <c r="X76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T76" s="1">
+      <c r="Y76" s="1">
         <f t="shared" si="10"/>
         <v>29960</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -6768,43 +7232,46 @@
         <v>2</v>
       </c>
       <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
         <f t="shared" si="15"/>
         <v>0.04</v>
       </c>
-      <c r="L77" s="1">
+      <c r="Q77" s="1">
         <f t="shared" si="13"/>
         <v>120</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="R77" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N77" s="1">
+      <c r="S77" s="1">
         <f t="shared" si="14"/>
         <v>60000</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="T77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P77" s="1">
+      <c r="U77" s="1">
         <f t="shared" si="8"/>
         <v>59980</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="V77" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R77" s="1">
+      <c r="W77" s="1">
         <f t="shared" si="9"/>
         <v>59970</v>
       </c>
-      <c r="S77" s="1" t="s">
+      <c r="X77" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T77" s="1">
+      <c r="Y77" s="1">
         <f t="shared" si="10"/>
         <v>59960</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -6827,48 +7294,51 @@
         <v>2</v>
       </c>
       <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
         <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
-      <c r="L78" s="1">
+      <c r="Q78" s="1">
         <f t="shared" si="13"/>
         <v>300</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="R78" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N78" s="1">
+      <c r="S78" s="1">
         <f t="shared" si="14"/>
         <v>150000</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="T78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P78" s="1">
+      <c r="U78" s="1">
         <f t="shared" si="8"/>
         <v>149980</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="V78" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R78" s="1">
+      <c r="W78" s="1">
         <f t="shared" si="9"/>
         <v>149970</v>
       </c>
-      <c r="S78" s="1" t="s">
+      <c r="X78" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T78" s="1">
+      <c r="Y78" s="1">
         <f t="shared" si="10"/>
         <v>149960</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -8321,6 +8791,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8329,7 +8800,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8373,7 +8844,7 @@
         <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8390,7 +8861,7 @@
         <v>158</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8407,7 +8878,7 @@
         <v>158</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8424,7 +8895,7 @@
         <v>158</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8441,7 +8912,7 @@
         <v>158</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>177</v>
@@ -8743,7 +9214,7 @@
         <v>159</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -8760,7 +9231,7 @@
         <v>168</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/national_tech国战科技.xlsx
+++ b/Excel/镇魂街/national_tech国战科技.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="234">
   <si>
     <t>科技1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -866,18 +866,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effect[1].Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>效果1名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effect[2].Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>效果2名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -886,10 +878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effect[3].Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string:e&lt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -898,23 +886,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float:&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:e&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:e&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ActivationEffect.Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivationEffect.Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -933,6 +905,26 @@
     <t>效果数值类型
 1.百分比
 2.数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectName[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectName[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectName[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivationEffectName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1357,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1491,7 +1483,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1563,13 +1555,13 @@
         <v>44</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>206</v>
@@ -1631,13 +1623,13 @@
         <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>192</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>205</v>
@@ -1699,13 +1691,13 @@
         <v>30</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>204</v>
@@ -2311,8 +2303,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ369"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2350,7 +2342,7 @@
         <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>185</v>
@@ -2362,7 +2354,7 @@
         <v>186</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>188</v>
@@ -2374,7 +2366,7 @@
         <v>189</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>190</v>
@@ -2448,31 +2440,31 @@
         <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>192</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>192</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>192</v>
@@ -2525,7 +2517,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>187</v>
@@ -2537,7 +2529,7 @@
         <v>208</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>209</v>
@@ -2549,7 +2541,7 @@
         <v>210</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>211</v>

--- a/Excel/镇魂街/national_tech国战科技.xlsx
+++ b/Excel/镇魂街/national_tech国战科技.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -1482,8 +1482,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2303,8 +2303,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ369"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2903,28 +2903,28 @@
         <v>83</v>
       </c>
       <c r="S7" s="1">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -2986,28 +2986,28 @@
         <v>83</v>
       </c>
       <c r="S8" s="1">
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
@@ -3234,28 +3234,28 @@
       </c>
       <c r="S12" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
@@ -3296,28 +3296,28 @@
       </c>
       <c r="S13" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
@@ -3544,28 +3544,28 @@
       </c>
       <c r="S17" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -3606,28 +3606,28 @@
       </c>
       <c r="S18" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
@@ -3854,28 +3854,28 @@
       </c>
       <c r="S22" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -3916,28 +3916,28 @@
       </c>
       <c r="S23" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -4164,28 +4164,28 @@
       </c>
       <c r="S27" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W27" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
@@ -4226,28 +4226,28 @@
       </c>
       <c r="S28" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U28" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W28" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -4470,28 +4470,28 @@
       </c>
       <c r="S32" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W32" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
@@ -4531,28 +4531,28 @@
       </c>
       <c r="S33" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W33" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -4775,28 +4775,28 @@
       </c>
       <c r="S37" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U37" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W37" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
@@ -4836,28 +4836,28 @@
       </c>
       <c r="S38" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W38" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
@@ -5080,28 +5080,28 @@
       </c>
       <c r="S42" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U42" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W42" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y42" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
@@ -5141,28 +5141,28 @@
       </c>
       <c r="S43" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
@@ -5385,28 +5385,28 @@
       </c>
       <c r="S47" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U47" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
@@ -5446,28 +5446,28 @@
       </c>
       <c r="S48" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U48" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W48" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
@@ -5694,28 +5694,28 @@
       </c>
       <c r="S52" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U52" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y52" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
@@ -5756,28 +5756,28 @@
       </c>
       <c r="S53" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U53" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W53" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y53" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
@@ -6004,28 +6004,28 @@
       </c>
       <c r="S57" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U57" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W57" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y57" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
@@ -6066,28 +6066,28 @@
       </c>
       <c r="S58" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U58" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W58" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y58" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
@@ -6314,28 +6314,28 @@
       </c>
       <c r="S62" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U62" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W62" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y62" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
@@ -6376,28 +6376,28 @@
       </c>
       <c r="S63" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U63" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W63" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y63" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
@@ -6624,28 +6624,28 @@
       </c>
       <c r="S67" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U67" s="1">
         <f t="shared" si="0"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W67" s="1">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y67" s="1">
         <f t="shared" si="2"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
@@ -6686,28 +6686,28 @@
       </c>
       <c r="S68" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U68" s="1">
         <f t="shared" si="0"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W68" s="1">
         <f t="shared" si="1"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X68" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y68" s="1">
         <f t="shared" si="2"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
@@ -6930,28 +6930,28 @@
       </c>
       <c r="S72" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U72" s="1">
         <f t="shared" si="8"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V72" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W72" s="1">
         <f t="shared" si="9"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X72" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y72" s="1">
         <f t="shared" si="10"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
@@ -6991,28 +6991,28 @@
       </c>
       <c r="S73" s="1">
         <f t="shared" si="7"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U73" s="1">
         <f t="shared" si="8"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" si="9"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X73" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y73" s="1">
         <f t="shared" si="10"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
@@ -7239,28 +7239,28 @@
       </c>
       <c r="S77" s="1">
         <f t="shared" si="14"/>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U77" s="1">
         <f t="shared" si="8"/>
-        <v>59980</v>
+        <v>39980</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W77" s="1">
         <f t="shared" si="9"/>
-        <v>59970</v>
+        <v>39970</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y77" s="1">
         <f t="shared" si="10"/>
-        <v>59960</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
@@ -7301,28 +7301,28 @@
       </c>
       <c r="S78" s="1">
         <f t="shared" si="14"/>
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>84</v>
       </c>
       <c r="U78" s="1">
         <f t="shared" si="8"/>
-        <v>149980</v>
+        <v>59980</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>85</v>
       </c>
       <c r="W78" s="1">
         <f t="shared" si="9"/>
-        <v>149970</v>
+        <v>59970</v>
       </c>
       <c r="X78" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y78" s="1">
         <f t="shared" si="10"/>
-        <v>149960</v>
+        <v>59960</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">

--- a/Excel/镇魂街/national_tech国战科技.xlsx
+++ b/Excel/镇魂街/national_tech国战科技.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="282">
   <si>
     <t>科技1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,306 +428,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伐木精通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>银木产量提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冶炼精通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤铁产量提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采石精通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>精石产量提高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耕犁精通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵谷产量提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高效利用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源产量提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库储量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库资源容量提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集银木</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集获得银木数量提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集赤铁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集获得赤铁数量提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集灵谷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集获得灵谷数量提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集精石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集获得精石数量提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集加速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集资源速度提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集获得资源数量提升</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>行军加速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>队伍行军速度提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科研加速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技研究速度提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动力上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌行动力上限提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动力恢复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌行动力恢复速度提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军力上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌军力值上限提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储备军力上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>储备军力上限提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储备军力恢复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>储备军力恢复速度提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大队伍数量提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害提升</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成伤害提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减免</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害减免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技效果id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征募速度提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁队伍的采集功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁队伍的驻守功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驻守解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征募加速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际征募时间=基础征募时间/(1+科技征募加成%+其他征募加成%-其他征募减成%)，其他包括地形影响、国战天赋等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际上限=基础上限+科技增加上限+国战天赋增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该产量是对四种资源全生效的加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际行军时间=基础行军时间/(1+科技加成%+)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际科研时间=基础科研时间/(1+总提升百分比)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际上限=卡牌基础上限+科技增加+国战天赋增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌总行动力恢复速率=基础速率/(1+总提升百分比)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际上限=城镇基础上限+科技增加+国战天赋增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复速率=基础速率/(1+总提升百分比)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际上限=基础上限+科技增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Effect[1].Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -753,14 +457,6 @@
   </si>
   <si>
     <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际产量=(占领资源点产量+科技产量)*(1+联盟加成%+科技加成%)+联盟占领城市加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际产量=(占领资源点产量+科技产量)*(1+联盟加成%+科技加成%)+联盟占领城市加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -925,6 +621,1044 @@
   </si>
   <si>
     <t>ActivationEffectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用模块及生效范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战天赋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木精通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼精通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤铁产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采石精通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精石产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕犁精通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵谷产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效利用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库储量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库资源容量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集银木</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得银木数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在队伍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集赤铁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得赤铁数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在队伍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集灵谷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得灵谷数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在队伍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集精石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得精石数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集资源速度提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得资源数量提升</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用该军团的队伍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍行军速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用该军团的队伍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技研究速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌行动力上限提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌自身</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力恢复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌行动力恢复速度提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军力上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌军力值上限提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌自身</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力上限提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力恢复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力恢复速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大队伍数量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻守解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁队伍的驻守功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开启功能 0.不开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁队伍的采集功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木精通II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼精通II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采石精通II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕犁精通II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵谷产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效利用II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募消耗降低</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募消耗资源降低</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用该军团的队伍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇剿匪行军速度提高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍行军速度提升</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往资源区行军速度提高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍行军速度提升</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍行军速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌自身</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎豹王骑-征募速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在虎豹王骑军团中，征募速度提高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用效果，之后添加更多类似的，即在某某军团下，有xx效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻守时受到伤害降低</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍所在城镇储备军力恢复速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用该军团的队伍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍讨伐野怪获得的经验提高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际经验=基础经验*(1+军团加成%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵造成伤害提高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人受到伤害降低</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际产量=(占领资源点产量+科技数值产量)*(1+联盟加成%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)+联盟占领城市加成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际采集时间=基础采集时间/(1+科技加成%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=基础上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际获得量=基础获得量*(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际行军时间=基础行军时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=卡牌基础上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际征募时间=基础征募时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=卡牌基础上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=城镇基础上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>恢复速率=基础速率/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=基础上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际行军时间=基础行军时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际征募时间=基础征募时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际恢复时间=基础时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际科研时间=基础科研时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>卡牌总行动力恢复速率=基础速率/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +1666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,8 +1703,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,12 +1733,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1013,6 +1773,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1026,7 +1823,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
@@ -1058,17 +1855,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1077,7 +1891,43 @@
     <cellStyle name="英文标题" xfId="1"/>
     <cellStyle name="中文标题" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1396,7 +2246,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>104</v>
@@ -1416,7 +2266,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
@@ -1434,7 +2284,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>106</v>
@@ -1454,7 +2304,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -1555,16 +2405,16 @@
         <v>44</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -1623,16 +2473,16 @@
         <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="V2"/>
       <c r="W2"/>
@@ -1691,16 +2541,16 @@
         <v>30</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1731,14 +2581,14 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="1">
         <v>5</v>
       </c>
-      <c r="R4" s="18" t="str">
-        <f>VLOOKUP(S4,效果查询!$A:$C,3,FALSE)</f>
-        <v>仓库资源容量提升</v>
+      <c r="R4" s="13" t="e">
+        <f>VLOOKUP(S4,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="S4" s="1">
         <v>6</v>
@@ -1775,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="I5" s="1">
         <v>6101001</v>
@@ -1812,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I6" s="1">
         <v>6101001</v>
@@ -1934,9 +2784,9 @@
       <c r="Q9" s="1">
         <v>5</v>
       </c>
-      <c r="R9" s="18" t="str">
-        <f>VLOOKUP(S9,效果查询!$A:$C,3,FALSE)</f>
-        <v>仓库资源容量提升</v>
+      <c r="R9" s="13" t="e">
+        <f>VLOOKUP(S9,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="S9" s="1">
         <v>6</v>
@@ -2010,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I11" s="1">
         <v>6101004</v>
@@ -2138,9 +2988,9 @@
       <c r="Q14" s="1">
         <v>5</v>
       </c>
-      <c r="R14" s="18" t="str">
-        <f>VLOOKUP(S14,效果查询!$A:$C,3,FALSE)</f>
-        <v>仓库资源容量提升</v>
+      <c r="R14" s="13" t="e">
+        <f>VLOOKUP(S14,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="S14" s="1">
         <v>6</v>
@@ -2303,7 +3153,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
@@ -2342,40 +3192,40 @@
         <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>98</v>
@@ -2434,7 +3284,7 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>87</v>
@@ -2446,28 +3296,28 @@
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="M2" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="Q2" t="s">
         <v>59</v>
@@ -2517,40 +3367,40 @@
         <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>80</v>
@@ -2608,9 +3458,9 @@
       <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="str">
-        <f>VLOOKUP(F4,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E4" s="13" t="e">
+        <f>VLOOKUP(F4,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -2621,9 +3471,9 @@
       <c r="H4" s="1">
         <v>0.01</v>
       </c>
-      <c r="I4" s="18" t="str">
-        <f>VLOOKUP(J4,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="I4" s="13" t="e">
+        <f>VLOOKUP(J4,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
@@ -2634,9 +3484,9 @@
       <c r="L4" s="1">
         <v>0.01</v>
       </c>
-      <c r="M4" s="18" t="str">
-        <f>VLOOKUP(N4,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="M4" s="13" t="e">
+        <f>VLOOKUP(N4,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="N4" s="1">
         <v>3</v>
@@ -2691,9 +3541,9 @@
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="str">
-        <f>VLOOKUP(F5,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E5" s="13" t="e">
+        <f>VLOOKUP(F5,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2704,9 +3554,9 @@
       <c r="H5" s="1">
         <v>0.02</v>
       </c>
-      <c r="I5" s="18" t="str">
-        <f>VLOOKUP(J5,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="I5" s="13" t="e">
+        <f>VLOOKUP(J5,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
@@ -2717,9 +3567,9 @@
       <c r="L5" s="1">
         <v>0.02</v>
       </c>
-      <c r="M5" s="18" t="str">
-        <f>VLOOKUP(N5,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="M5" s="13" t="e">
+        <f>VLOOKUP(N5,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="N5" s="1">
         <v>3</v>
@@ -2774,9 +3624,9 @@
       <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="18" t="str">
-        <f>VLOOKUP(F6,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E6" s="13" t="e">
+        <f>VLOOKUP(F6,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -2787,9 +3637,9 @@
       <c r="H6" s="1">
         <v>0.03</v>
       </c>
-      <c r="I6" s="18" t="str">
-        <f>VLOOKUP(J6,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="I6" s="13" t="e">
+        <f>VLOOKUP(J6,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -2800,9 +3650,9 @@
       <c r="L6" s="1">
         <v>0.03</v>
       </c>
-      <c r="M6" s="18" t="str">
-        <f>VLOOKUP(N6,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="M6" s="13" t="e">
+        <f>VLOOKUP(N6,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="N6" s="1">
         <v>3</v>
@@ -2857,9 +3707,9 @@
       <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="E7" s="18" t="str">
-        <f>VLOOKUP(F7,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E7" s="13" t="e">
+        <f>VLOOKUP(F7,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -2870,9 +3720,9 @@
       <c r="H7" s="1">
         <v>0.04</v>
       </c>
-      <c r="I7" s="18" t="str">
-        <f>VLOOKUP(J7,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="I7" s="13" t="e">
+        <f>VLOOKUP(J7,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
@@ -2883,9 +3733,9 @@
       <c r="L7" s="1">
         <v>0.04</v>
       </c>
-      <c r="M7" s="18" t="str">
-        <f>VLOOKUP(N7,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="M7" s="13" t="e">
+        <f>VLOOKUP(N7,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="N7" s="1">
         <v>3</v>
@@ -2940,9 +3790,9 @@
       <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="18" t="str">
-        <f>VLOOKUP(F8,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E8" s="13" t="e">
+        <f>VLOOKUP(F8,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -2953,9 +3803,9 @@
       <c r="H8" s="1">
         <v>0.05</v>
       </c>
-      <c r="I8" s="18" t="str">
-        <f>VLOOKUP(J8,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="I8" s="13" t="e">
+        <f>VLOOKUP(J8,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J8" s="1">
         <v>2</v>
@@ -2966,9 +3816,9 @@
       <c r="L8" s="1">
         <v>0.05</v>
       </c>
-      <c r="M8" s="18" t="str">
-        <f>VLOOKUP(N8,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="M8" s="13" t="e">
+        <f>VLOOKUP(N8,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="N8" s="1">
         <v>3</v>
@@ -3025,9 +3875,9 @@
         <f>D4</f>
         <v>1</v>
       </c>
-      <c r="E9" s="18" t="str">
-        <f>VLOOKUP(F9,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E9" s="13" t="e">
+        <f>VLOOKUP(F9,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -3087,9 +3937,9 @@
         <f t="shared" ref="D10:D73" si="4">D5</f>
         <v>2</v>
       </c>
-      <c r="E10" s="18" t="str">
-        <f>VLOOKUP(F10,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E10" s="13" t="e">
+        <f>VLOOKUP(F10,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -3149,9 +3999,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E11" s="18" t="str">
-        <f>VLOOKUP(F11,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E11" s="13" t="e">
+        <f>VLOOKUP(F11,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -3211,9 +4061,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E12" s="18" t="str">
-        <f>VLOOKUP(F12,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E12" s="13" t="e">
+        <f>VLOOKUP(F12,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -3273,9 +4123,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E13" s="18" t="str">
-        <f>VLOOKUP(F13,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E13" s="13" t="e">
+        <f>VLOOKUP(F13,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -3335,9 +4185,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="str">
-        <f>VLOOKUP(F14,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="E14" s="13" t="e">
+        <f>VLOOKUP(F14,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -3397,9 +4247,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E15" s="18" t="str">
-        <f>VLOOKUP(F15,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="E15" s="13" t="e">
+        <f>VLOOKUP(F15,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
@@ -3459,9 +4309,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E16" s="18" t="str">
-        <f>VLOOKUP(F16,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="E16" s="13" t="e">
+        <f>VLOOKUP(F16,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
@@ -3521,9 +4371,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E17" s="18" t="str">
-        <f>VLOOKUP(F17,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="E17" s="13" t="e">
+        <f>VLOOKUP(F17,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
@@ -3583,9 +4433,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E18" s="18" t="str">
-        <f>VLOOKUP(F18,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="E18" s="13" t="e">
+        <f>VLOOKUP(F18,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -3645,9 +4495,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E19" s="18" t="str">
-        <f>VLOOKUP(F19,效果查询!$A:$C,3,FALSE)</f>
-        <v>灵谷产量提高</v>
+      <c r="E19" s="13" t="e">
+        <f>VLOOKUP(F19,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
@@ -3707,9 +4557,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E20" s="18" t="str">
-        <f>VLOOKUP(F20,效果查询!$A:$C,3,FALSE)</f>
-        <v>灵谷产量提高</v>
+      <c r="E20" s="13" t="e">
+        <f>VLOOKUP(F20,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -3769,9 +4619,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E21" s="18" t="str">
-        <f>VLOOKUP(F21,效果查询!$A:$C,3,FALSE)</f>
-        <v>灵谷产量提高</v>
+      <c r="E21" s="13" t="e">
+        <f>VLOOKUP(F21,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
@@ -3831,9 +4681,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E22" s="18" t="str">
-        <f>VLOOKUP(F22,效果查询!$A:$C,3,FALSE)</f>
-        <v>灵谷产量提高</v>
+      <c r="E22" s="13" t="e">
+        <f>VLOOKUP(F22,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
@@ -3893,9 +4743,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E23" s="18" t="str">
-        <f>VLOOKUP(F23,效果查询!$A:$C,3,FALSE)</f>
-        <v>灵谷产量提高</v>
+      <c r="E23" s="13" t="e">
+        <f>VLOOKUP(F23,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F23" s="1">
         <v>4</v>
@@ -3955,9 +4805,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E24" s="18" t="str">
-        <f>VLOOKUP(F24,效果查询!$A:$C,3,FALSE)</f>
-        <v>资源产量提高</v>
+      <c r="E24" s="13" t="e">
+        <f>VLOOKUP(F24,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
@@ -4017,9 +4867,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E25" s="18" t="str">
-        <f>VLOOKUP(F25,效果查询!$A:$C,3,FALSE)</f>
-        <v>资源产量提高</v>
+      <c r="E25" s="13" t="e">
+        <f>VLOOKUP(F25,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
@@ -4079,9 +4929,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E26" s="18" t="str">
-        <f>VLOOKUP(F26,效果查询!$A:$C,3,FALSE)</f>
-        <v>资源产量提高</v>
+      <c r="E26" s="13" t="e">
+        <f>VLOOKUP(F26,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
@@ -4141,9 +4991,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E27" s="18" t="str">
-        <f>VLOOKUP(F27,效果查询!$A:$C,3,FALSE)</f>
-        <v>资源产量提高</v>
+      <c r="E27" s="13" t="e">
+        <f>VLOOKUP(F27,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
@@ -4203,9 +5053,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E28" s="18" t="str">
-        <f>VLOOKUP(F28,效果查询!$A:$C,3,FALSE)</f>
-        <v>资源产量提高</v>
+      <c r="E28" s="13" t="e">
+        <f>VLOOKUP(F28,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F28" s="1">
         <v>5</v>
@@ -4265,9 +5115,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E29" s="18" t="str">
-        <f>VLOOKUP(F29,效果查询!$A:$C,3,FALSE)</f>
-        <v>仓库资源容量提升</v>
+      <c r="E29" s="13" t="e">
+        <f>VLOOKUP(F29,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F29" s="1">
         <v>6</v>
@@ -4326,9 +5176,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E30" s="18" t="str">
-        <f>VLOOKUP(F30,效果查询!$A:$C,3,FALSE)</f>
-        <v>仓库资源容量提升</v>
+      <c r="E30" s="13" t="e">
+        <f>VLOOKUP(F30,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F30" s="1">
         <v>6</v>
@@ -4387,9 +5237,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E31" s="18" t="str">
-        <f>VLOOKUP(F31,效果查询!$A:$C,3,FALSE)</f>
-        <v>仓库资源容量提升</v>
+      <c r="E31" s="13" t="e">
+        <f>VLOOKUP(F31,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F31" s="1">
         <v>6</v>
@@ -4448,9 +5298,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E32" s="18" t="str">
-        <f>VLOOKUP(F32,效果查询!$A:$C,3,FALSE)</f>
-        <v>仓库资源容量提升</v>
+      <c r="E32" s="13" t="e">
+        <f>VLOOKUP(F32,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F32" s="1">
         <v>6</v>
@@ -4509,9 +5359,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E33" s="18" t="str">
-        <f>VLOOKUP(F33,效果查询!$A:$C,3,FALSE)</f>
-        <v>仓库资源容量提升</v>
+      <c r="E33" s="13" t="e">
+        <f>VLOOKUP(F33,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F33" s="1">
         <v>6</v>
@@ -4570,9 +5420,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E34" s="18" t="str">
-        <f>VLOOKUP(F34,效果查询!$A:$C,3,FALSE)</f>
-        <v>队伍行军速度提升</v>
+      <c r="E34" s="13" t="e">
+        <f>VLOOKUP(F34,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F34" s="1">
         <v>13</v>
@@ -4631,9 +5481,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E35" s="18" t="str">
-        <f>VLOOKUP(F35,效果查询!$A:$C,3,FALSE)</f>
-        <v>队伍行军速度提升</v>
+      <c r="E35" s="13" t="e">
+        <f>VLOOKUP(F35,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F35" s="1">
         <v>13</v>
@@ -4692,9 +5542,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E36" s="18" t="str">
-        <f>VLOOKUP(F36,效果查询!$A:$C,3,FALSE)</f>
-        <v>队伍行军速度提升</v>
+      <c r="E36" s="13" t="e">
+        <f>VLOOKUP(F36,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F36" s="1">
         <v>13</v>
@@ -4753,9 +5603,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E37" s="18" t="str">
-        <f>VLOOKUP(F37,效果查询!$A:$C,3,FALSE)</f>
-        <v>队伍行军速度提升</v>
+      <c r="E37" s="13" t="e">
+        <f>VLOOKUP(F37,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F37" s="1">
         <v>13</v>
@@ -4814,9 +5664,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E38" s="18" t="str">
-        <f>VLOOKUP(F38,效果查询!$A:$C,3,FALSE)</f>
-        <v>队伍行军速度提升</v>
+      <c r="E38" s="13" t="e">
+        <f>VLOOKUP(F38,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F38" s="1">
         <v>13</v>
@@ -4875,9 +5725,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E39" s="18" t="str">
-        <f>VLOOKUP(F39,效果查询!$A:$C,3,FALSE)</f>
-        <v>科技研究速度提升</v>
+      <c r="E39" s="13" t="e">
+        <f>VLOOKUP(F39,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F39" s="1">
         <v>14</v>
@@ -4936,9 +5786,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E40" s="18" t="str">
-        <f>VLOOKUP(F40,效果查询!$A:$C,3,FALSE)</f>
-        <v>科技研究速度提升</v>
+      <c r="E40" s="13" t="e">
+        <f>VLOOKUP(F40,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F40" s="1">
         <v>14</v>
@@ -4997,9 +5847,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E41" s="18" t="str">
-        <f>VLOOKUP(F41,效果查询!$A:$C,3,FALSE)</f>
-        <v>科技研究速度提升</v>
+      <c r="E41" s="13" t="e">
+        <f>VLOOKUP(F41,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F41" s="1">
         <v>14</v>
@@ -5058,9 +5908,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E42" s="18" t="str">
-        <f>VLOOKUP(F42,效果查询!$A:$C,3,FALSE)</f>
-        <v>科技研究速度提升</v>
+      <c r="E42" s="13" t="e">
+        <f>VLOOKUP(F42,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F42" s="1">
         <v>14</v>
@@ -5119,9 +5969,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E43" s="18" t="str">
-        <f>VLOOKUP(F43,效果查询!$A:$C,3,FALSE)</f>
-        <v>科技研究速度提升</v>
+      <c r="E43" s="13" t="e">
+        <f>VLOOKUP(F43,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F43" s="1">
         <v>14</v>
@@ -5180,9 +6030,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E44" s="18" t="str">
-        <f>VLOOKUP(F44,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E44" s="13" t="e">
+        <f>VLOOKUP(F44,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -5241,9 +6091,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E45" s="18" t="str">
-        <f>VLOOKUP(F45,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E45" s="13" t="e">
+        <f>VLOOKUP(F45,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -5302,9 +6152,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E46" s="18" t="str">
-        <f>VLOOKUP(F46,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E46" s="13" t="e">
+        <f>VLOOKUP(F46,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -5363,9 +6213,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E47" s="18" t="str">
-        <f>VLOOKUP(F47,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E47" s="13" t="e">
+        <f>VLOOKUP(F47,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -5424,9 +6274,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E48" s="18" t="str">
-        <f>VLOOKUP(F48,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E48" s="13" t="e">
+        <f>VLOOKUP(F48,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -5485,9 +6335,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E49" s="18" t="str">
-        <f>VLOOKUP(F49,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E49" s="13" t="e">
+        <f>VLOOKUP(F49,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F49" s="1">
         <v>2</v>
@@ -5547,9 +6397,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E50" s="18" t="str">
-        <f>VLOOKUP(F50,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E50" s="13" t="e">
+        <f>VLOOKUP(F50,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
@@ -5609,9 +6459,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E51" s="18" t="str">
-        <f>VLOOKUP(F51,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E51" s="13" t="e">
+        <f>VLOOKUP(F51,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F51" s="1">
         <v>2</v>
@@ -5671,9 +6521,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E52" s="18" t="str">
-        <f>VLOOKUP(F52,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E52" s="13" t="e">
+        <f>VLOOKUP(F52,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
@@ -5733,9 +6583,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E53" s="18" t="str">
-        <f>VLOOKUP(F53,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E53" s="13" t="e">
+        <f>VLOOKUP(F53,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F53" s="1">
         <v>2</v>
@@ -5795,9 +6645,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E54" s="18" t="str">
-        <f>VLOOKUP(F54,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="E54" s="13" t="e">
+        <f>VLOOKUP(F54,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
@@ -5857,9 +6707,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E55" s="18" t="str">
-        <f>VLOOKUP(F55,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="E55" s="13" t="e">
+        <f>VLOOKUP(F55,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
@@ -5919,9 +6769,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E56" s="18" t="str">
-        <f>VLOOKUP(F56,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="E56" s="13" t="e">
+        <f>VLOOKUP(F56,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F56" s="1">
         <v>3</v>
@@ -5981,9 +6831,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E57" s="18" t="str">
-        <f>VLOOKUP(F57,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="E57" s="13" t="e">
+        <f>VLOOKUP(F57,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
@@ -6043,9 +6893,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E58" s="18" t="str">
-        <f>VLOOKUP(F58,效果查询!$A:$C,3,FALSE)</f>
-        <v>精石产量提高</v>
+      <c r="E58" s="13" t="e">
+        <f>VLOOKUP(F58,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
@@ -6105,9 +6955,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E59" s="18" t="str">
-        <f>VLOOKUP(F59,效果查询!$A:$C,3,FALSE)</f>
-        <v>灵谷产量提高</v>
+      <c r="E59" s="13" t="e">
+        <f>VLOOKUP(F59,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F59" s="1">
         <v>4</v>
@@ -6167,9 +7017,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E60" s="18" t="str">
-        <f>VLOOKUP(F60,效果查询!$A:$C,3,FALSE)</f>
-        <v>灵谷产量提高</v>
+      <c r="E60" s="13" t="e">
+        <f>VLOOKUP(F60,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F60" s="1">
         <v>4</v>
@@ -6229,9 +7079,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E61" s="18" t="str">
-        <f>VLOOKUP(F61,效果查询!$A:$C,3,FALSE)</f>
-        <v>灵谷产量提高</v>
+      <c r="E61" s="13" t="e">
+        <f>VLOOKUP(F61,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F61" s="1">
         <v>4</v>
@@ -6291,9 +7141,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E62" s="18" t="str">
-        <f>VLOOKUP(F62,效果查询!$A:$C,3,FALSE)</f>
-        <v>灵谷产量提高</v>
+      <c r="E62" s="13" t="e">
+        <f>VLOOKUP(F62,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F62" s="1">
         <v>4</v>
@@ -6353,9 +7203,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E63" s="18" t="str">
-        <f>VLOOKUP(F63,效果查询!$A:$C,3,FALSE)</f>
-        <v>灵谷产量提高</v>
+      <c r="E63" s="13" t="e">
+        <f>VLOOKUP(F63,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F63" s="1">
         <v>4</v>
@@ -6415,9 +7265,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E64" s="18" t="str">
-        <f>VLOOKUP(F64,效果查询!$A:$C,3,FALSE)</f>
-        <v>资源产量提高</v>
+      <c r="E64" s="13" t="e">
+        <f>VLOOKUP(F64,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F64" s="1">
         <v>5</v>
@@ -6477,9 +7327,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E65" s="18" t="str">
-        <f>VLOOKUP(F65,效果查询!$A:$C,3,FALSE)</f>
-        <v>资源产量提高</v>
+      <c r="E65" s="13" t="e">
+        <f>VLOOKUP(F65,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -6539,9 +7389,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E66" s="18" t="str">
-        <f>VLOOKUP(F66,效果查询!$A:$C,3,FALSE)</f>
-        <v>资源产量提高</v>
+      <c r="E66" s="13" t="e">
+        <f>VLOOKUP(F66,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -6601,9 +7451,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E67" s="18" t="str">
-        <f>VLOOKUP(F67,效果查询!$A:$C,3,FALSE)</f>
-        <v>资源产量提高</v>
+      <c r="E67" s="13" t="e">
+        <f>VLOOKUP(F67,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F67" s="1">
         <v>5</v>
@@ -6663,9 +7513,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E68" s="18" t="str">
-        <f>VLOOKUP(F68,效果查询!$A:$C,3,FALSE)</f>
-        <v>资源产量提高</v>
+      <c r="E68" s="13" t="e">
+        <f>VLOOKUP(F68,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F68" s="1">
         <v>5</v>
@@ -6725,9 +7575,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E69" s="18" t="str">
-        <f>VLOOKUP(F69,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E69" s="13" t="e">
+        <f>VLOOKUP(F69,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
@@ -6786,9 +7636,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E70" s="18" t="str">
-        <f>VLOOKUP(F70,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E70" s="13" t="e">
+        <f>VLOOKUP(F70,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F70" s="1">
         <v>1</v>
@@ -6847,9 +7697,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E71" s="18" t="str">
-        <f>VLOOKUP(F71,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E71" s="13" t="e">
+        <f>VLOOKUP(F71,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
@@ -6908,9 +7758,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E72" s="18" t="str">
-        <f>VLOOKUP(F72,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E72" s="13" t="e">
+        <f>VLOOKUP(F72,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -6969,9 +7819,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E73" s="18" t="str">
-        <f>VLOOKUP(F73,效果查询!$A:$C,3,FALSE)</f>
-        <v>银木产量提高</v>
+      <c r="E73" s="13" t="e">
+        <f>VLOOKUP(F73,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F73" s="1">
         <v>1</v>
@@ -7030,9 +7880,9 @@
         <f t="shared" ref="D74:D78" si="12">D69</f>
         <v>1</v>
       </c>
-      <c r="E74" s="18" t="str">
-        <f>VLOOKUP(F74,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E74" s="13" t="e">
+        <f>VLOOKUP(F74,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F74" s="1">
         <v>2</v>
@@ -7092,9 +7942,9 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="E75" s="18" t="str">
-        <f>VLOOKUP(F75,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E75" s="13" t="e">
+        <f>VLOOKUP(F75,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F75" s="1">
         <v>2</v>
@@ -7154,9 +8004,9 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="E76" s="18" t="str">
-        <f>VLOOKUP(F76,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E76" s="13" t="e">
+        <f>VLOOKUP(F76,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F76" s="1">
         <v>2</v>
@@ -7216,9 +8066,9 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="E77" s="18" t="str">
-        <f>VLOOKUP(F77,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E77" s="13" t="e">
+        <f>VLOOKUP(F77,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F77" s="1">
         <v>2</v>
@@ -7278,9 +8128,9 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="E78" s="18" t="str">
-        <f>VLOOKUP(F78,效果查询!$A:$C,3,FALSE)</f>
-        <v>赤铁产量提高</v>
+      <c r="E78" s="13" t="e">
+        <f>VLOOKUP(F78,效果查询!#REF!,3,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="F78" s="1">
         <v>2</v>
@@ -8789,445 +9639,1056 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="74.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="14" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="C5" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>22</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>28</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D30" s="15" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="E30" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>29</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="F31" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="G31" s="15"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>30</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>31</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="E33" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <v>33</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <v>34</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <v>35</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>36</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <v>37</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>38</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <v>39</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>40</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <v>41</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="21">
+        <v>42</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <v>43</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H9:H12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:G1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"全局"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"所在队伍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"卡牌自身"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"使用该军团的队伍"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
